--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3741635.822668235</v>
+        <v>3845047.558632317</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7426240.699613569</v>
+        <v>7391210.978340814</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>33.45148485541272</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>281.0447321358034</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>36.00404229407524</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39208168443209</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>25.7372294663726</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>71.62574039664889</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1069,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>70.71688779192036</v>
+        <v>1.624820357902564</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>280.7601617800784</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>192.1784823165492</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>55.30887384997108</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.55596175061137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.15100857094623</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217464</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>95.12712756824166</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>100.7197280522354</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>137.3021949834108</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>243.2577348836394</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695544</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>147.040720618689</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>102.9012384238793</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.2254435299275</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>57.02356321678209</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>67.96934215963719</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600556</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308914</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652758</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808189</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972043</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652758</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808189</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>177.1006680594871</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>45.89043756183489</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860056</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.22340015156063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>44.95889092250222</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1832.276849100056</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C2" t="n">
-        <v>1463.314332159644</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D2" t="n">
-        <v>1105.048633552894</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E2" t="n">
-        <v>1105.048633552894</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410104</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139989</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2609.016021139989</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2218.876689164178</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.3315924698002</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1801.096371357055</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1801.096371357055</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1511.993504482699</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>1511.993504482699</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621301</v>
+        <v>1222.576334445738</v>
       </c>
       <c r="X4" t="n">
-        <v>652.2346852641127</v>
+        <v>994.5867835477208</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.9800573000399</v>
+        <v>773.7942044041906</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2012.898941548399</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1643.936424607987</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548399</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4641,43 +4643,43 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6989751875257</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="C7" t="n">
-        <v>455.7627922596188</v>
+        <v>483.2985023362049</v>
       </c>
       <c r="D7" t="n">
-        <v>305.646152847283</v>
+        <v>333.1818629238692</v>
       </c>
       <c r="E7" t="n">
-        <v>305.646152847283</v>
+        <v>333.1818629238692</v>
       </c>
       <c r="F7" t="n">
-        <v>305.646152847283</v>
+        <v>333.1818629238692</v>
       </c>
       <c r="G7" t="n">
-        <v>137.943316222002</v>
+        <v>165.4790262985881</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4761,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6989751875257</v>
+        <v>652.2346852641118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1901.535346136983</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176916</v>
+        <v>1988.146375545919</v>
       </c>
       <c r="Y8" t="n">
-        <v>2288.135186201105</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311.7508871962311</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>311.7508871962311</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962311</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y10" t="n">
-        <v>311.7508871962311</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277339</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277339</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,13 +5217,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>640.106052595425</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>640.106052595425</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830891</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830891</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1042.547096569195</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>821.7545174256649</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>557.5558870561827</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851671</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5917956728314</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1187.98648192797</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>959.9969310299527</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>739.2043518864225</v>
       </c>
     </row>
     <row r="20">
@@ -5744,43 +5746,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466574</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532801</v>
+        <v>2985.713220456421</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>2881.772575583816</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>2881.772575583816</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>2733.859482001422</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2586.969534503512</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761984</v>
+        <v>3167.361685286661</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,13 +6016,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>3047.140839595364</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>3026.711098656043</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>2876.594459243707</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>3449.581883569134</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>3228.789304425603</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,7 +6217,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
@@ -6233,19 +6235,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6263,13 +6265,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6302,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081858</v>
+        <v>2939.372134388644</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153951</v>
+        <v>2939.372134388644</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>2881.772575583813</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>2733.85948200142</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>2586.96953450351</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H28" t="n">
         <v>2419.77343521839</v>
@@ -6406,28 +6408,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T28" t="n">
-        <v>4690.833152398593</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196493</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990606</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953645</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055628</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>3114.186543342963</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>2945.250360415057</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>2945.250360415057</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>2797.337266832663</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3516.627587316733</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3295.835008173203</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319338</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656832</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150038</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942671</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345493</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384038</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2380.852671620012</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319338</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656832</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150038</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942671</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580131</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345493</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384038</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1918.296605585279</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.919755080347</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7630,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7661,22 +7663,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2971.848747074061</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C46" t="n">
-        <v>2802.912564146154</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D46" t="n">
-        <v>2652.795924733819</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E46" t="n">
-        <v>2504.882831151425</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F46" t="n">
-        <v>2504.882831151425</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866305</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4656.264061336412</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4473.409226991316</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4253.807762014258</v>
+        <v>4395.519593172059</v>
       </c>
       <c r="U46" t="n">
-        <v>3964.732535358456</v>
+        <v>4106.444366516257</v>
       </c>
       <c r="V46" t="n">
-        <v>3710.048047152569</v>
+        <v>3851.75987831037</v>
       </c>
       <c r="W46" t="n">
-        <v>3420.630877115608</v>
+        <v>3562.34270827341</v>
       </c>
       <c r="X46" t="n">
-        <v>3192.641326217591</v>
+        <v>3334.353157375392</v>
       </c>
       <c r="Y46" t="n">
-        <v>2971.848747074061</v>
+        <v>3113.560578231862</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.6809716109911</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.76050189075674</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>72.11969353038617</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>124.9899273368019</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>9.131767663158399</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>43.26526345295181</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.79125956324827</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>64.34558267474864</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>147.0213775687005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>91.59190980143026</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>77.45170586329405</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>75.03697526434087</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>87.17534280744516</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>179.8192178272023</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>32.15184655856106</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>172.4465594047861</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647286.3630150413</v>
+        <v>647286.3630150415</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299762</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299762</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176758</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="G2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176763</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.725617677</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363172</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
+        <v>11776.97621680567</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11776.97621680572</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11776.97621680573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680588</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="G4" t="n">
-        <v>11776.97621680586</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="J4" t="n">
-        <v>11776.9762168059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19767.83547989931</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19767.83547989931</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19767.8354798993</v>
-      </c>
       <c r="O4" t="n">
-        <v>19767.8354798993</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727126.9716594677</v>
+        <v>-727126.9716594667</v>
       </c>
       <c r="C6" t="n">
         <v>601617.7740681254</v>
       </c>
       <c r="D6" t="n">
-        <v>601617.7740681254</v>
+        <v>601617.7740681251</v>
       </c>
       <c r="E6" t="n">
-        <v>348655.9668496876</v>
+        <v>348655.9668496878</v>
       </c>
       <c r="F6" t="n">
-        <v>674068.4286570426</v>
+        <v>674068.4286570428</v>
       </c>
       <c r="G6" t="n">
-        <v>674068.4286570426</v>
+        <v>674068.4286570433</v>
       </c>
       <c r="H6" t="n">
-        <v>674068.4286570426</v>
+        <v>674068.4286570433</v>
       </c>
       <c r="I6" t="n">
-        <v>674068.4286570429</v>
+        <v>674068.4286570431</v>
       </c>
       <c r="J6" t="n">
         <v>456537.2262597653</v>
       </c>
       <c r="K6" t="n">
-        <v>658156.0562902307</v>
+        <v>674068.4286570429</v>
       </c>
       <c r="L6" t="n">
-        <v>677583.7742838624</v>
+        <v>674068.4286570429</v>
       </c>
       <c r="M6" t="n">
-        <v>592528.7463483505</v>
+        <v>589013.400721531</v>
       </c>
       <c r="N6" t="n">
-        <v>677583.7742838616</v>
+        <v>674068.4286570429</v>
       </c>
       <c r="O6" t="n">
-        <v>677583.7742838623</v>
+        <v>674068.4286570427</v>
       </c>
       <c r="P6" t="n">
-        <v>674068.4286570433</v>
+        <v>674068.4286570429</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>349.2823568080678</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>125.8313136059081</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>153.7649830373666</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1925716676627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>328.9458121543104</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>277.6152283207641</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>74.03812712240043</v>
+        <v>143.1301945564182</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>84.51272999092913</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>177.5526183619199</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>170.4007815390661</v>
       </c>
       <c r="Y10" t="n">
-        <v>168.0286916014834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28564,13 +28566,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28618,19 +28620,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28849,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28864,10 +28866,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-5.591286086285871e-15</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>526.2989357561985</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>254.8897444730596</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>567.5882829286713</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>675.952017818248</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33181,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>489.2891832783074</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,19 +33973,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,13 +34377,13 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>541.2980521010961</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35583,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>394.9572236728652</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35820,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>116.3353646931855</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36057,10 +36059,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36437,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>533.3557733738036</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>357.9474711949741</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,13 +38025,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3845047.558632317</v>
+        <v>3841034.948618324</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.45148485541272</v>
+        <v>4.792004777349866</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>36.00404229407524</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.00433147567331</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>109.3296738389808</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>71.62574039664889</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.624820357902564</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>59.91108870906591</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1110,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>177.2979137777583</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>192.1784823165492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.5647726587068</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>55.30887384997108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>45.66054613217464</v>
+        <v>31.26260713376557</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012179</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012179</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>100.7197280522354</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012179</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>243.2577348836394</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695544</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>102.9012384238793</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>20.2254435299275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.02356321678209</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>67.96934215963719</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.65140663107579</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.44930784064577</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>177.1006680594871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>61.44013021076719</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>45.89043756183489</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>44.95889092250222</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.580917301916</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.580917301916</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4400,10 +4400,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,10 +4412,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.7942044041906</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8580214762837</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1801.096371357055</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1801.096371357055</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1511.993504482699</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1511.993504482699</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="W4" t="n">
-        <v>1222.576334445738</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X4" t="n">
-        <v>994.5867835477208</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y4" t="n">
-        <v>773.7942044041906</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1789.055335321089</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1430.789636714338</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1045.001384116094</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>634.0154793264867</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>218.9430291714831</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,25 +4634,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4667,13 +4667,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.2346852641118</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>483.2985023362049</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>333.1818629238692</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>333.1818629238692</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>333.1818629238692</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>165.4790262985881</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1866.778296867215</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1675.092412694041</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641118</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.2346852641118</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>1988.146375545919</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>602.6456555615222</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>454.7325619791291</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>307.8426144812187</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>307.8426144812187</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419976</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>913.8728408985925</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400697</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400697</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277339</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277339</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578605</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138398</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.106052595425</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>640.106052595425</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830891</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830891</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851786</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.547096569195</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>821.7545174256649</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654462</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891998</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446605</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561827</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282757</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282757</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458824</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.98648192797</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9969310299527</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.2043518864225</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5785,7 +5785,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5840,13 +5840,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2985.713220456421</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2881.772575583816</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2881.772575583816</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001422</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503512</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218392</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286661</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,13 +6016,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3047.140839595364</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243707</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467151</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.581883569134</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.789304425603</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,16 +6262,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1368.154262550759</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2939.372134388644</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2939.372134388644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583813</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.85948200142</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.96953450351</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.77343521839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388644</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3114.186543342963</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C31" t="n">
-        <v>2945.250360415057</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D31" t="n">
-        <v>2945.250360415057</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E31" t="n">
-        <v>2797.337266832663</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>276.5613528960944</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W31" t="n">
-        <v>3744.61713821475</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X31" t="n">
-        <v>3516.627587316733</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y31" t="n">
-        <v>3295.835008173203</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
         <v>484.8112968429803</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2149.810879820877</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3113.560578231862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2944.624395303955</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4395.519593172059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4106.444366516257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3851.75987831037</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3562.34270827341</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3334.353157375392</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3113.560578231862</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>99.76050189075674</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>124.9899273368019</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>43.26526345295181</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>64.34558267474864</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>147.0213775687005</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365912</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>91.59190980143026</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.45170586329405</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>75.03697526434087</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>87.17534280744516</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>179.8192178272023</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>172.4465594047861</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647286.3630150415</v>
+        <v>647286.3630150413</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636517.6061299762</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636517.6061299762</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="14">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977558</v>
@@ -26352,10 +26352,10 @@
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680567</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680572</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680573</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727126.9716594667</v>
+        <v>-727126.9716594672</v>
       </c>
       <c r="C6" t="n">
-        <v>601617.7740681254</v>
+        <v>601617.7740681253</v>
       </c>
       <c r="D6" t="n">
-        <v>601617.7740681251</v>
+        <v>601617.7740681261</v>
       </c>
       <c r="E6" t="n">
-        <v>348655.9668496878</v>
+        <v>348308.587595331</v>
       </c>
       <c r="F6" t="n">
-        <v>674068.4286570428</v>
+        <v>673721.0494026861</v>
       </c>
       <c r="G6" t="n">
-        <v>674068.4286570433</v>
+        <v>673721.049402686</v>
       </c>
       <c r="H6" t="n">
-        <v>674068.4286570433</v>
+        <v>673721.0494026856</v>
       </c>
       <c r="I6" t="n">
-        <v>674068.4286570431</v>
+        <v>673721.049402686</v>
       </c>
       <c r="J6" t="n">
-        <v>456537.2262597653</v>
+        <v>456189.8470054086</v>
       </c>
       <c r="K6" t="n">
-        <v>674068.4286570429</v>
+        <v>673721.049402686</v>
       </c>
       <c r="L6" t="n">
-        <v>674068.4286570429</v>
+        <v>673721.0494026858</v>
       </c>
       <c r="M6" t="n">
-        <v>589013.400721531</v>
+        <v>588666.0214671741</v>
       </c>
       <c r="N6" t="n">
-        <v>674068.4286570429</v>
+        <v>673721.049402686</v>
       </c>
       <c r="O6" t="n">
-        <v>674068.4286570427</v>
+        <v>673721.049402686</v>
       </c>
       <c r="P6" t="n">
-        <v>674068.4286570429</v>
+        <v>673721.0494026861</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,16 +26795,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.2823568080678</v>
+        <v>377.9418368861307</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>153.7649830373666</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>234.1333118481547</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>185.2780905483397</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>277.6152283207641</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>143.1301945564182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>29.0210639609814</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>26.62005636186188</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>177.5526183619199</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>2.19024225561401</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>170.4007815390661</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28566,13 +28566,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28620,19 +28620,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28866,10 +28866,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-5.591286086285871e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>254.8897444730596</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>211.5147800288493</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>414.6448185524877</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>675.952017818248</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>576.057346513631</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>160.6314956130963</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>541.2980521010961</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35822,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>116.3353646931855</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>77.5403726145191</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36059,10 +36059,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>272.5107846304694</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>533.3557733738036</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>433.4611020691866</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.64972152707474</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>407.3236446867659</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3841034.948618324</v>
+        <v>3842795.47892111</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.792004777349866</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>315.0833133550128</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="V4" t="n">
-        <v>18.00433147567331</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>372.1007580824249</v>
       </c>
       <c r="H5" t="n">
-        <v>109.3296738389808</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>94.17546490534912</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>59.91108870906591</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>177.2979137777583</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>142.5647726587068</v>
       </c>
       <c r="H10" t="n">
-        <v>142.5647726587068</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376557</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>46.86766651429448</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695564</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018857</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444142</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.65140663107579</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C2" t="n">
         <v>934.5673701373257</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.1577228956174</v>
+        <v>2392.599276780831</v>
       </c>
       <c r="C4" t="n">
-        <v>531.2215399677106</v>
+        <v>2223.663093852924</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>2073.546454440589</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>1925.633360858196</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1778.743413360285</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>3312.447041689579</v>
       </c>
       <c r="V4" t="n">
-        <v>1620.005487804365</v>
+        <v>3312.447041689579</v>
       </c>
       <c r="W4" t="n">
-        <v>1330.588317767405</v>
+        <v>3023.029871652619</v>
       </c>
       <c r="X4" t="n">
-        <v>1102.598766869387</v>
+        <v>2795.040320754601</v>
       </c>
       <c r="Y4" t="n">
-        <v>881.8061877258572</v>
+        <v>2574.247741611071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2158.017852261501</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C5" t="n">
-        <v>1789.055335321089</v>
+        <v>1509.206671818183</v>
       </c>
       <c r="D5" t="n">
-        <v>1430.789636714338</v>
+        <v>1150.940973211433</v>
       </c>
       <c r="E5" t="n">
-        <v>1045.001384116094</v>
+        <v>1150.940973211433</v>
       </c>
       <c r="F5" t="n">
-        <v>634.0154793264867</v>
+        <v>739.9550684218252</v>
       </c>
       <c r="G5" t="n">
-        <v>218.9430291714831</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.017852261501</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>556.9942588361923</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>406.8776194238566</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>258.9645258414635</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>258.9645258414635</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>258.9645258414635</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1866.778296867215</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.092412694041</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1453.325797263567</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1453.325797263567</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="8">
@@ -4792,7 +4792,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4953,13 +4953,13 @@
         <v>307.8426144812187</v>
       </c>
       <c r="G10" t="n">
-        <v>307.8426144812187</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,22 +5059,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5518,19 +5518,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362691</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6262,16 +6262,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6554,13 +6554,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.613315601761</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>888.6771326738537</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>738.560493261518</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>590.6473996791249</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>443.7574521812145</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>276.5613528960944</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510508</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473548</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.05435957553</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7356,13 +7356,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,13 +7736,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891657</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194228</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.6433062151481</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="12">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176758</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176759</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
@@ -26349,13 +26349,13 @@
         <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26441,7 +26441,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727126.9716594672</v>
+        <v>-727126.9716594673</v>
       </c>
       <c r="C6" t="n">
-        <v>601617.7740681253</v>
+        <v>601617.7740681255</v>
       </c>
       <c r="D6" t="n">
-        <v>601617.7740681261</v>
+        <v>601617.7740681258</v>
       </c>
       <c r="E6" t="n">
-        <v>348308.587595331</v>
+        <v>348621.2289242524</v>
       </c>
       <c r="F6" t="n">
-        <v>673721.0494026861</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="G6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="H6" t="n">
-        <v>673721.0494026856</v>
+        <v>674033.690731607</v>
       </c>
       <c r="I6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="J6" t="n">
-        <v>456189.8470054086</v>
+        <v>456502.4883343299</v>
       </c>
       <c r="K6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="L6" t="n">
-        <v>673721.0494026858</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="M6" t="n">
-        <v>588666.0214671741</v>
+        <v>588978.6627960955</v>
       </c>
       <c r="N6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="O6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316075</v>
       </c>
       <c r="P6" t="n">
-        <v>673721.0494026861</v>
+        <v>674033.6907316073</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973558</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.9418368861307</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50.18957841599473</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>273.1846460852166</v>
       </c>
       <c r="V4" t="n">
-        <v>234.1333118481547</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>38.82096757102852</v>
       </c>
       <c r="H5" t="n">
-        <v>185.2780905483397</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>50.57955000897167</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>29.0210639609814</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>26.62005636186188</v>
+        <v>26.62005636186143</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>23.46103560032145</v>
       </c>
       <c r="H10" t="n">
-        <v>2.19024225561401</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,7 +32086,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34152,10 +34152,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34456,7 +34456,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
